--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC40.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC40.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -537,25 +537,16 @@
     <t xml:space="preserve">Conjunto de los ocho primeros múltiplos de 3, representado con diagramas de Venn. </t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC40, pág. 2)</t>
-  </si>
-  <si>
     <t>IMG03</t>
   </si>
   <si>
     <t xml:space="preserve">La imagen es el conjunto de letras de la palabra margarita representado por extensión, es decir entre llaves. </t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC40, pág. 3)</t>
-  </si>
-  <si>
     <t>IMG04</t>
   </si>
   <si>
     <t>IMG05</t>
-  </si>
-  <si>
-    <t>(Ver recurso MA_04_01_CO_REC40, pág. 4)</t>
   </si>
   <si>
     <t>Conjunto D (múltiplos de 10 menores que 80), representado por comprensión.</t>
@@ -566,6 +557,9 @@
   <si>
     <t>Manzana: Shutterstock 68160100
 Frutas rojas, cerezas y fresas: Shutterstock 76474888.</t>
+  </si>
+  <si>
+    <t>(Ver imagen en observaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1271,7 +1265,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1481,26 +1475,14 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,6 +1579,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1730,6 +1721,422 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1119187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>460375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2728277</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1506220</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="17478375" y="2413000"/>
+          <a:ext cx="1609090" cy="1045845"/>
+          <a:chOff x="0" y="0"/>
+          <a:chExt cx="4680621" cy="3057526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 4" descr="http://thumb1.shutterstock.com/display_pic_with_logo/270154/270154,1304442167,30/stock-photo-fresh-ripe-berries-photographed-closeup-isolated-on-a-white-background-76474888.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="4286250" cy="3057526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 2" descr="http://thumb1.shutterstock.com/display_pic_with_logo/557506/557506,1293955641,8/stock-photo-red-apple-isolated-68160100.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3123574" y="719666"/>
+            <a:ext cx="1356144" cy="1413404"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 2" descr="http://thumb1.shutterstock.com/display_pic_with_logo/557506/557506,1293955641,8/stock-photo-red-apple-isolated-68160100.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2543171" y="1253066"/>
+            <a:ext cx="1356144" cy="1413404"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Picture 2" descr="http://thumb1.shutterstock.com/display_pic_with_logo/557506/557506,1293955641,8/stock-photo-red-apple-isolated-68160100.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3324477" y="1399648"/>
+            <a:ext cx="1356144" cy="1413404"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 2" descr="http://thumb1.shutterstock.com/display_pic_with_logo/557506/557506,1293955641,8/stock-photo-red-apple-isolated-68160100.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1968333" y="1448594"/>
+            <a:ext cx="1356144" cy="1413404"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>944563</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2904808</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1432560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17303751" y="3762375"/>
+          <a:ext cx="1960245" cy="1353185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2635251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3548698</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>986790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16335376" y="5397500"/>
+          <a:ext cx="3572510" cy="859790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103188</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>269875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4818698</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>769620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16462376" y="6691313"/>
+          <a:ext cx="4715510" cy="499745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1706563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3308668</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1512253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18065751" y="7580313"/>
+          <a:ext cx="1602105" cy="1440815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2446,7 +2853,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2868,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="64.875" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2484,14 +2891,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="F2" s="86" t="s">
+      <c r="D2" s="90"/>
+      <c r="F2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="87"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
       <c r="J2" s="16"/>
@@ -2501,12 +2908,12 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="91">
         <v>4</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="89"/>
+      <c r="D3" s="92"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="16"/>
@@ -2516,10 +2923,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5"/>
       <c r="F4" s="54" t="s">
         <v>56</v>
@@ -2537,10 +2944,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
       <c r="F5" s="52" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2591,12 +2998,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="88"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2640,12 +3047,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" ref="C10:C21" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2673,29 +3080,29 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="K10" s="82" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="K10" s="113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f t="shared" ref="A11:A29" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>154</v>
+      <c r="B11" s="81" t="s">
+        <v>161</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>146</v>
       </c>
       <c r="F11" s="14" t="str">
@@ -2714,26 +3121,26 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="79" t="s">
+      <c r="J11" s="80" t="s">
         <v>153</v>
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="14" t="str">
@@ -2752,26 +3159,26 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="114" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
-        <v>158</v>
-      </c>
       <c r="B13" s="81" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="79" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="14" t="str">
@@ -2790,26 +3197,26 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="83" t="s">
+      <c r="J13" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="81" t="s">
         <v>161</v>
-      </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="84" t="s">
-        <v>160</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="79" t="s">
         <v>146</v>
       </c>
       <c r="F14" s="14" t="str">
@@ -2828,8 +3235,8 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J14" s="85" t="s">
-        <v>162</v>
+      <c r="J14" s="115" t="s">
+        <v>159</v>
       </c>
       <c r="K14" s="21"/>
     </row>
@@ -5273,6 +5680,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5302,25 +5710,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="46"/>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5328,11 +5736,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="47"/>
       <c r="H3" s="37" t="s">
         <v>19</v>
@@ -5383,11 +5791,11 @@
       <c r="C5" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="113" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="114"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="47"/>
       <c r="H5" s="37" t="s">
         <v>23</v>
@@ -5432,12 +5840,12 @@
       <c r="C7" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="99" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="37" t="s">
         <v>25</v>
       </c>
@@ -5531,14 +5939,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="I13" s="37" t="s">
         <v>34</v>
       </c>
@@ -5571,12 +5979,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="37">
         <v>12</v>
       </c>
@@ -5616,12 +6024,12 @@
       <c r="C17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="107" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="J17" s="37">
         <v>14</v>
       </c>
@@ -5637,12 +6045,12 @@
       <c r="C18" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="99" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="J18" s="37">
         <v>15</v>
       </c>
@@ -6033,41 +6441,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="56" t="s">
         <v>66</v>
       </c>
